--- a/hebrewOutputs/hebrew82Comperation_12_Common_alpha=0.32.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_12_Common_alpha=0.32.xlsx
@@ -834,7 +834,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -960,7 +960,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -1016,7 +1016,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -1212,7 +1212,7 @@
         <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
@@ -1366,7 +1366,7 @@
         <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -1478,7 +1478,7 @@
         <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
@@ -1520,7 +1520,7 @@
         <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
@@ -1716,7 +1716,7 @@
         <v>48</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -1786,7 +1786,7 @@
         <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D71" t="s">
         <v>9</v>
@@ -1828,7 +1828,7 @@
         <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
@@ -2066,7 +2066,7 @@
         <v>44</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D91" t="s">
         <v>9</v>
@@ -2318,7 +2318,7 @@
         <v>55</v>
       </c>
       <c r="C109" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D109" t="s">
         <v>9</v>
@@ -2388,7 +2388,7 @@
         <v>27</v>
       </c>
       <c r="C114" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D114" t="s">
         <v>7</v>
@@ -2402,7 +2402,7 @@
         <v>44</v>
       </c>
       <c r="C115" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D115" t="s">
         <v>9</v>
@@ -2458,7 +2458,7 @@
         <v>22</v>
       </c>
       <c r="C119" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D119" t="s">
         <v>9</v>
